--- a/org-tweetyproject-arg-rank-ext/src/main/java/org/tweetyproject/arg/rbextensionsemantics/evaluation/results/threshold/final_ar-count_nondetailed.xlsx
+++ b/org-tweetyproject-arg-rank-ext/src/main/java/org/tweetyproject/arg/rbextensionsemantics/evaluation/results/threshold/final_ar-count_nondetailed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\final_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rank-ext\src\main\java\org\tweetyproject\arg\rbextensionsemantics\evaluation\results\threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC87CB-EE22-459A-9732-F1B10083BF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540CE8BD-9CA0-4C80-986D-0DF8903B9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="4050" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_COUNTI" sheetId="1" r:id="rId1"/>
@@ -28754,8 +28754,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -29084,7 +29084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
